--- a/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Big_181x490.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Big_181x490.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\附薦\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D66C637-9171-4B83-8BC4-2564FD1A6917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DB94CA-7693-4AF3-B075-BA78BA842311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="915" windowWidth="16560" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表格1" sheetId="2" r:id="rId1"/>
@@ -446,8 +446,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="255"/>
@@ -455,16 +461,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
   </cellXfs>
@@ -751,7 +751,7 @@
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" activeCellId="2" sqref="N3:N12 M3:M12 L3:L12"/>
+      <selection activeCell="AU3" sqref="AU3:AW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
@@ -868,631 +868,601 @@
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="24" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" s="30" t="s">
+      <c r="AD2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="30" t="s">
+      <c r="AI2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="30" t="s">
+      <c r="AN2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="AS2" s="30" t="s">
+      <c r="AS2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" s="30" t="s">
+      <c r="AX2" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:53" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="30"/>
+      <c r="O3" s="24"/>
       <c r="P3" s="16"/>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="30"/>
+      <c r="T3" s="24"/>
       <c r="U3" s="15"/>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="24" t="s">
+      <c r="X3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="30"/>
+      <c r="Y3" s="24"/>
       <c r="Z3" s="15"/>
-      <c r="AA3" s="24" t="s">
+      <c r="AA3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="24" t="s">
+      <c r="AB3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="24" t="s">
+      <c r="AC3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="30"/>
+      <c r="AD3" s="24"/>
       <c r="AE3" s="17"/>
-      <c r="AF3" s="24" t="s">
+      <c r="AF3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="24" t="s">
+      <c r="AG3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AH3" s="24" t="s">
+      <c r="AH3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="30"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="16"/>
-      <c r="AK3" s="24" t="s">
+      <c r="AK3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AL3" s="24" t="s">
+      <c r="AL3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AM3" s="24" t="s">
+      <c r="AM3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="AN3" s="30"/>
+      <c r="AN3" s="24"/>
       <c r="AO3" s="16"/>
-      <c r="AP3" s="24" t="s">
+      <c r="AP3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AQ3" s="24" t="s">
+      <c r="AQ3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AR3" s="24" t="s">
+      <c r="AR3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="30"/>
+      <c r="AS3" s="24"/>
       <c r="AT3" s="16"/>
-      <c r="AU3" s="24" t="s">
+      <c r="AU3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AV3" s="24" t="s">
+      <c r="AV3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AW3" s="24" t="s">
+      <c r="AW3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="30"/>
+      <c r="AX3" s="24"/>
     </row>
     <row r="4" spans="1:53" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="24"/>
       <c r="P4" s="16"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="24"/>
       <c r="U4" s="15"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="24"/>
       <c r="Z4" s="15"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="24"/>
       <c r="AE4" s="17"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="24"/>
       <c r="AJ4" s="16"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="24"/>
       <c r="AO4" s="16"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="24"/>
       <c r="AT4" s="16"/>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="24"/>
-      <c r="AW4" s="24"/>
-      <c r="AX4" s="30"/>
+      <c r="AU4" s="30"/>
+      <c r="AV4" s="30"/>
+      <c r="AW4" s="30"/>
+      <c r="AX4" s="24"/>
     </row>
     <row r="5" spans="1:53" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="24"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="24"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="24"/>
       <c r="Z5" s="15"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="24"/>
       <c r="AE5" s="17"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="24"/>
       <c r="AJ5" s="16"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="24"/>
       <c r="AO5" s="16"/>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="24"/>
-      <c r="AS5" s="30"/>
+      <c r="AP5" s="30"/>
+      <c r="AQ5" s="30"/>
+      <c r="AR5" s="30"/>
+      <c r="AS5" s="24"/>
       <c r="AT5" s="16"/>
-      <c r="AU5" s="24"/>
-      <c r="AV5" s="24"/>
-      <c r="AW5" s="24"/>
-      <c r="AX5" s="30"/>
+      <c r="AU5" s="30"/>
+      <c r="AV5" s="30"/>
+      <c r="AW5" s="30"/>
+      <c r="AX5" s="24"/>
     </row>
     <row r="6" spans="1:53" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="30"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="24"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="24"/>
       <c r="P6" s="17"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="24"/>
       <c r="U6" s="18"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="24"/>
       <c r="Z6" s="18"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="24"/>
       <c r="AE6" s="17"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="24"/>
       <c r="AJ6" s="17"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="24"/>
       <c r="AO6" s="16"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="24"/>
-      <c r="AS6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="24"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="24"/>
-      <c r="AV6" s="24"/>
-      <c r="AW6" s="24"/>
-      <c r="AX6" s="30"/>
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="30"/>
+      <c r="AX6" s="24"/>
     </row>
     <row r="7" spans="1:53" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="25" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="27" t="s">
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="25" t="s">
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="25" t="s">
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="27" t="s">
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="27" t="s">
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="27" t="s">
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AP7" s="24"/>
-      <c r="AQ7" s="24"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="30"/>
-      <c r="AT7" s="27" t="s">
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="24"/>
+      <c r="AT7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AU7" s="24"/>
-      <c r="AV7" s="24"/>
-      <c r="AW7" s="24"/>
-      <c r="AX7" s="30"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="30"/>
+      <c r="AX7" s="24"/>
     </row>
     <row r="8" spans="1:53" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="20"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
       <c r="T8" s="19"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
       <c r="Y8" s="19"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
       <c r="AD8" s="20"/>
       <c r="AE8" s="29"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
       <c r="AI8" s="20"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
-      <c r="AM8" s="24"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
       <c r="AN8" s="20"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="24"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="24"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="30"/>
       <c r="AS8" s="20"/>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="24"/>
-      <c r="AV8" s="24"/>
-      <c r="AW8" s="24"/>
+      <c r="AT8" s="26"/>
+      <c r="AU8" s="30"/>
+      <c r="AV8" s="30"/>
+      <c r="AW8" s="30"/>
       <c r="AX8" s="20"/>
     </row>
     <row r="9" spans="1:53" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="20"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
       <c r="T9" s="19"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
       <c r="Y9" s="19"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
       <c r="AD9" s="20"/>
       <c r="AE9" s="29"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
       <c r="AI9" s="20"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
       <c r="AN9" s="20"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
       <c r="AS9" s="20"/>
-      <c r="AT9" s="28"/>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="24"/>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
       <c r="AX9" s="20"/>
     </row>
     <row r="10" spans="1:53" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="20"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
       <c r="T10" s="19"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
       <c r="Y10" s="19"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
       <c r="AD10" s="20"/>
       <c r="AE10" s="29"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
       <c r="AI10" s="20"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
       <c r="AN10" s="20"/>
-      <c r="AO10" s="28"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="24"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="30"/>
       <c r="AS10" s="20"/>
-      <c r="AT10" s="28"/>
-      <c r="AU10" s="24"/>
-      <c r="AV10" s="24"/>
-      <c r="AW10" s="24"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="30"/>
+      <c r="AV10" s="30"/>
+      <c r="AW10" s="30"/>
       <c r="AX10" s="20"/>
     </row>
     <row r="11" spans="1:53" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AK11" s="24"/>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="24"/>
-      <c r="AP11" s="24"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="24"/>
-      <c r="AU11" s="24"/>
-      <c r="AV11" s="24"/>
-      <c r="AW11" s="24"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="30"/>
+      <c r="AW11" s="30"/>
     </row>
     <row r="12" spans="1:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="24"/>
-      <c r="AR12" s="24"/>
-      <c r="AU12" s="24"/>
-      <c r="AV12" s="24"/>
-      <c r="AW12" s="24"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="30"/>
+      <c r="AR12" s="30"/>
+      <c r="AU12" s="30"/>
+      <c r="AV12" s="30"/>
+      <c r="AW12" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="AX2:AX7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="O2:O7"/>
-    <mergeCell ref="T2:T7"/>
-    <mergeCell ref="Y2:Y7"/>
-    <mergeCell ref="AO7:AO10"/>
-    <mergeCell ref="AT7:AT10"/>
-    <mergeCell ref="AD2:AD7"/>
-    <mergeCell ref="AI2:AI7"/>
-    <mergeCell ref="AN2:AN7"/>
-    <mergeCell ref="AS2:AS7"/>
-    <mergeCell ref="AA3:AA12"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="U7:U10"/>
-    <mergeCell ref="Z7:Z10"/>
-    <mergeCell ref="X3:X12"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="I3:I12"/>
-    <mergeCell ref="L3:L12"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="N3:N12"/>
-    <mergeCell ref="Q3:Q12"/>
-    <mergeCell ref="R3:R12"/>
-    <mergeCell ref="S3:S12"/>
+    <mergeCell ref="AE7:AE10"/>
+    <mergeCell ref="AJ7:AJ10"/>
     <mergeCell ref="V3:V12"/>
     <mergeCell ref="W3:W12"/>
     <mergeCell ref="AV3:AV12"/>
@@ -1509,8 +1479,38 @@
     <mergeCell ref="AU3:AU12"/>
     <mergeCell ref="AL3:AL12"/>
     <mergeCell ref="AM3:AM12"/>
-    <mergeCell ref="AE7:AE10"/>
-    <mergeCell ref="AJ7:AJ10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="U7:U10"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="I3:I12"/>
+    <mergeCell ref="L3:L12"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="Q3:Q12"/>
+    <mergeCell ref="R3:R12"/>
+    <mergeCell ref="AX2:AX7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="O2:O7"/>
+    <mergeCell ref="T2:T7"/>
+    <mergeCell ref="Y2:Y7"/>
+    <mergeCell ref="AO7:AO10"/>
+    <mergeCell ref="AT7:AT10"/>
+    <mergeCell ref="AD2:AD7"/>
+    <mergeCell ref="AI2:AI7"/>
+    <mergeCell ref="AN2:AN7"/>
+    <mergeCell ref="AS2:AS7"/>
+    <mergeCell ref="AA3:AA12"/>
+    <mergeCell ref="Z7:Z10"/>
+    <mergeCell ref="X3:X12"/>
+    <mergeCell ref="S3:S12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="0" top="1.3779527559055118" bottom="1.3779527559055118" header="0" footer="0"/>

--- a/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Big_181x490.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Big_181x490.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8672A593-D693-429B-BCFF-828CADD2B9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CDB7A3-871C-436B-9BFD-021EE6E854A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>{{ASerial}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,119 +106,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{ADece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ADece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{BDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{BDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{BDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{CDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{CDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{CDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{DDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{DDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{DDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{EDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{EDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{EDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{FDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{FDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{FDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{GDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{GDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{GDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{HDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{HDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{HDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{IDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{IDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{IDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{JDece1}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{JDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{JDece3}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,6 +344,9 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,14 +356,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,7 +708,7 @@
   <dimension ref="A1:AX8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="AU2" sqref="AU2:AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -847,284 +767,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="13"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
       <c r="O1" s="13"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16"/>
       <c r="T1" s="13"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="16"/>
       <c r="Y1" s="13"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="16"/>
       <c r="AD1" s="13"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="16"/>
       <c r="AI1" s="13"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="16"/>
       <c r="AN1" s="13"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="16"/>
       <c r="AS1" s="13"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="16"/>
       <c r="AX1" s="13"/>
     </row>
     <row r="2" spans="1:50" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="17" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="17" t="s">
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL2" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM2" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO2" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU2" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX2" s="18" t="s">
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="238.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="18"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="14"/>
     </row>
     <row r="4" spans="1:50" s="6" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="18"/>
       <c r="C4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="19"/>
+      <c r="F4" s="18"/>
       <c r="H4" s="7"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="19"/>
+      <c r="K4" s="18"/>
       <c r="M4" s="7"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="19"/>
+      <c r="P4" s="18"/>
       <c r="R4" s="7"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="19"/>
+      <c r="U4" s="18"/>
       <c r="W4" s="7"/>
       <c r="Y4" s="8"/>
-      <c r="Z4" s="19"/>
+      <c r="Z4" s="18"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="8"/>
-      <c r="AE4" s="19"/>
+      <c r="AE4" s="18"/>
       <c r="AG4" s="7"/>
       <c r="AI4" s="8"/>
-      <c r="AJ4" s="19"/>
+      <c r="AJ4" s="18"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
       <c r="AN4" s="8"/>
-      <c r="AO4" s="19"/>
+      <c r="AO4" s="18"/>
       <c r="AQ4" s="7"/>
       <c r="AS4" s="8"/>
-      <c r="AT4" s="19"/>
+      <c r="AT4" s="18"/>
       <c r="AV4" s="7"/>
       <c r="AX4" s="8"/>
     </row>
@@ -1257,67 +1137,47 @@
       <c r="AW8" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="K2:K4"/>
+  <mergeCells count="40">
+    <mergeCell ref="AU2:AW3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="Q2:S3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="AA2:AC3"/>
+    <mergeCell ref="AF2:AH3"/>
     <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
     <mergeCell ref="AJ2:AJ4"/>
     <mergeCell ref="AO2:AO4"/>
     <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AP2:AR3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0"/>

--- a/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Big_181x490.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Big_181x490.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CDB7A3-871C-436B-9BFD-021EE6E854A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A475B73-9379-4797-BE52-64CF1AA32830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,14 +230,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="22"/>
@@ -301,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,13 +324,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -347,20 +339,26 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,7 +706,7 @@
   <dimension ref="A1:AX8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2:AW3"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -767,244 +765,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="13"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="13"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
       <c r="O1" s="13"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="16"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="13"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="16"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="19"/>
       <c r="Y1" s="13"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="16"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="19"/>
       <c r="AD1" s="13"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="16"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="19"/>
       <c r="AI1" s="13"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="16"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="19"/>
       <c r="AN1" s="13"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="16"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="19"/>
       <c r="AS1" s="13"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="16"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="19"/>
       <c r="AX1" s="13"/>
     </row>
     <row r="2" spans="1:50" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
       <c r="O2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
       <c r="T2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
       <c r="Y2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="Z2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
       <c r="AD2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="17" t="s">
+      <c r="AE2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="19" t="s">
+      <c r="AF2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
       <c r="AI2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AJ2" s="17" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AK2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
       <c r="AN2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="17" t="s">
+      <c r="AO2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AP2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
       <c r="AS2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AT2" s="17" t="s">
+      <c r="AT2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" s="19" t="s">
+      <c r="AU2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
       <c r="AX2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="238.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
       <c r="T3" s="14"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
       <c r="Y3" s="14"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
       <c r="AD3" s="14"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
       <c r="AI3" s="14"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
       <c r="AN3" s="14"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
       <c r="AS3" s="14"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
       <c r="AX3" s="14"/>
     </row>
     <row r="4" spans="1:50" s="6" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="21"/>
       <c r="C4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="18"/>
+      <c r="F4" s="16"/>
       <c r="H4" s="7"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="18"/>
+      <c r="K4" s="16"/>
       <c r="M4" s="7"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="18"/>
+      <c r="P4" s="16"/>
       <c r="R4" s="7"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="18"/>
+      <c r="U4" s="16"/>
       <c r="W4" s="7"/>
       <c r="Y4" s="8"/>
-      <c r="Z4" s="18"/>
+      <c r="Z4" s="16"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="8"/>
-      <c r="AE4" s="18"/>
+      <c r="AE4" s="16"/>
       <c r="AG4" s="7"/>
       <c r="AI4" s="8"/>
-      <c r="AJ4" s="18"/>
+      <c r="AJ4" s="16"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
       <c r="AN4" s="8"/>
-      <c r="AO4" s="18"/>
+      <c r="AO4" s="16"/>
       <c r="AQ4" s="7"/>
       <c r="AS4" s="8"/>
-      <c r="AT4" s="18"/>
+      <c r="AT4" s="16"/>
       <c r="AV4" s="7"/>
       <c r="AX4" s="8"/>
     </row>
@@ -1138,15 +1136,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AU2:AW3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="G2:I3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="Q2:S3"/>
     <mergeCell ref="V2:X3"/>
     <mergeCell ref="AA2:AC3"/>
     <mergeCell ref="AF2:AH3"/>
+    <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:I1"/>
@@ -1154,16 +1149,12 @@
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AJ2:AJ4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AT2:AT4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="Z2:Z4"/>
     <mergeCell ref="U2:U4"/>
     <mergeCell ref="E2:E3"/>
@@ -1172,12 +1163,19 @@
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G2:I3"/>
     <mergeCell ref="AX2:AX3"/>
     <mergeCell ref="AE2:AE4"/>
     <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="AK2:AM3"/>
     <mergeCell ref="AP2:AR3"/>
+    <mergeCell ref="AU2:AW3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AS2:AS3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0"/>

--- a/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Big_181x490.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Big_181x490.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A475B73-9379-4797-BE52-64CF1AA32830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69A9867-8ED8-4939-BACB-7D0BD06A12E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,12 +211,63 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
-      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -225,46 +276,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
@@ -293,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,53 +324,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,246 +780,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="13"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="13"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="13"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="13"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="13"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="13"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="13"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="13"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="13"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="10"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="10"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="10"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="10"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="10"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="10"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="10"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="10"/>
     </row>
     <row r="2" spans="1:50" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="14" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="14" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="14" t="s">
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="14" t="s">
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AA2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="14" t="s">
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AE2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AF2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="14" t="s">
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AJ2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AK2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="14" t="s">
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AO2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="AP2" s="17" t="s">
+      <c r="AP2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="14" t="s">
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AT2" s="15" t="s">
+      <c r="AT2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" s="17" t="s">
+      <c r="AU2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="14" t="s">
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="238.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="17"/>
     </row>
     <row r="4" spans="1:50" s="6" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="C4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="16"/>
-      <c r="H4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="16"/>
-      <c r="M4" s="7"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="16"/>
-      <c r="R4" s="7"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="16"/>
-      <c r="W4" s="7"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="16"/>
-      <c r="AG4" s="7"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="16"/>
-      <c r="AQ4" s="7"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="16"/>
-      <c r="AV4" s="7"/>
-      <c r="AX4" s="8"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="21"/>
     </row>
     <row r="5" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -1022,15 +1053,15 @@
       <c r="V5" s="1"/>
       <c r="W5" s="2"/>
       <c r="X5" s="1"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="1"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="1"/>
@@ -1136,19 +1167,17 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="L2:N3"/>
-    <mergeCell ref="Q2:S3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="AA2:AC3"/>
-    <mergeCell ref="AF2:AH3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AP2:AR3"/>
+    <mergeCell ref="AU2:AW3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AS2:AS3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="K2:K4"/>
@@ -1165,17 +1194,19 @@
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="G2:I3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AP2:AR3"/>
-    <mergeCell ref="AU2:AW3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="Q2:S3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="AA2:AC3"/>
+    <mergeCell ref="AF2:AH3"/>
+    <mergeCell ref="AD2:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0"/>
